--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Gosaikhali/Draft Drawings/Ghosaikhali Input_Final.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Gosaikhali/Draft Drawings/Ghosaikhali Input_Final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="7668" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="7668" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Headers" sheetId="18" r:id="rId1"/>
@@ -22515,7 +22515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -25251,7 +25251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
